--- a/Project/SuiteFiles/SFlights.xlsx
+++ b/Project/SuiteFiles/SFlights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dines\Learn And Interview\Interview_question_answer\Project\SuiteFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C584ADA8-B131-407A-8675-B84B18EF3A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D093095-B232-4F26-B7D1-B95C1B1FD2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Test_2</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t>MEL</t>
@@ -450,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -530,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,7 +577,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
